--- a/public/uploads/import/UTAR-拉曼大学-20220120-永得.xlsx
+++ b/public/uploads/import/UTAR-拉曼大学-20220120-永得.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\myunidb\public\uploads\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48824CDA-432D-423E-921C-19A36C44D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233562BB-F796-4615-9C9F-3DD886C24A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学校信息" sheetId="1" r:id="rId1"/>
@@ -1831,10 +1831,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1843,22 +1843,31 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,15 +1877,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2161,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -2345,9 +2345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="15.6" customHeight="1"/>
@@ -2373,76 +2373,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="62" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="59"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:17" ht="40.1" customHeight="1">
       <c r="A3" s="60" t="s">
@@ -4849,24 +4849,24 @@
       <c r="P69" s="15"/>
     </row>
     <row r="70" spans="1:17" ht="40.1" customHeight="1">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
     </row>
     <row r="71" spans="1:17" ht="40.1" customHeight="1">
       <c r="A71" s="12" t="s">
@@ -5177,11 +5177,6 @@
     <row r="307" ht="32.450000000000003" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A20:P20"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="C1:C2"/>
@@ -5197,6 +5192,11 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5211,8 +5211,8 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="15.6" customHeight="1"/>
@@ -5238,76 +5238,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="62" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="67"/>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="25" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="59"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:17" ht="40.1" customHeight="1">
       <c r="A3" s="60" t="s">
@@ -5747,24 +5747,24 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="40.1" customHeight="1">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
     </row>
     <row r="16" spans="1:17" ht="40.1" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -7781,24 +7781,24 @@
       <c r="P69" s="19"/>
     </row>
     <row r="70" spans="1:17" ht="40.1" customHeight="1">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
-      <c r="O70" s="65"/>
-      <c r="P70" s="65"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
     </row>
     <row r="71" spans="1:17" ht="40.1" customHeight="1">
       <c r="A71" s="12" t="s">
@@ -7874,12 +7874,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A70:P70"/>
     <mergeCell ref="A66:P66"/>
     <mergeCell ref="E1:E2"/>
@@ -7894,6 +7888,12 @@
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
